--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_07-06.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_07-06.xlsx
@@ -48,7 +48,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_12fce")] Squads with no exposure to the Sarkaz's mysterious rituals may suffer heavy losses because of these strange structures…
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_12fce")] Squads with no exposure to the Sarkaz's mysterious rituals may suffer heavy losses because of these strange structures...
 </t>
   </si>
   <si>
